--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H2">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I2">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J2">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N2">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q2">
-        <v>0.1555994314706666</v>
+        <v>0.047124935424</v>
       </c>
       <c r="R2">
-        <v>1.400394883236</v>
+        <v>0.424124418816</v>
       </c>
       <c r="S2">
-        <v>0.240618968730554</v>
+        <v>0.107395258393436</v>
       </c>
       <c r="T2">
-        <v>0.2406189687305541</v>
+        <v>0.107395258393436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H3">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q3">
-        <v>0.08304844210199999</v>
+        <v>0.019775907648</v>
       </c>
       <c r="R3">
-        <v>0.747435978918</v>
+        <v>0.177983168832</v>
       </c>
       <c r="S3">
-        <v>0.1284261150853211</v>
+        <v>0.04506825723394094</v>
       </c>
       <c r="T3">
-        <v>0.1284261150853211</v>
+        <v>0.04506825723394092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.014112</v>
+      </c>
+      <c r="H4">
+        <v>0.042336</v>
+      </c>
+      <c r="I4">
+        <v>0.1773673913134555</v>
+      </c>
+      <c r="J4">
+        <v>0.1773673913134555</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.05926299999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.177789</v>
-      </c>
-      <c r="I4">
-        <v>0.4396528061129863</v>
-      </c>
-      <c r="J4">
-        <v>0.4396528061129863</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N4">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q4">
-        <v>0.003914676727999999</v>
+        <v>0.001888378464</v>
       </c>
       <c r="R4">
-        <v>0.03523209055199999</v>
+        <v>0.016995406176</v>
       </c>
       <c r="S4">
-        <v>0.006053656291041356</v>
+        <v>0.004303515564768189</v>
       </c>
       <c r="T4">
-        <v>0.006053656291041356</v>
+        <v>0.004303515564768188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H5">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I5">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J5">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N5">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q5">
-        <v>0.04174473867399999</v>
+        <v>0.00903941808</v>
       </c>
       <c r="R5">
-        <v>0.375702648066</v>
+        <v>0.08135476272</v>
       </c>
       <c r="S5">
-        <v>0.06455406600606983</v>
+        <v>0.02060036012131039</v>
       </c>
       <c r="T5">
-        <v>0.06455406600606985</v>
+        <v>0.02060036012131039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H6">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I6">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J6">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N6">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q6">
-        <v>0.1983149057226667</v>
+        <v>0.197900017576</v>
       </c>
       <c r="R6">
-        <v>1.784834151504</v>
+        <v>1.781100158184</v>
       </c>
       <c r="S6">
-        <v>0.3066741802837556</v>
+        <v>0.451003769711607</v>
       </c>
       <c r="T6">
-        <v>0.3066741802837557</v>
+        <v>0.4510037697116069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H7">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I7">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J7">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q7">
-        <v>0.105847070328</v>
+        <v>0.08304844210200002</v>
       </c>
       <c r="R7">
-        <v>0.9526236329520001</v>
+        <v>0.7474359789180001</v>
       </c>
       <c r="S7">
-        <v>0.1636819149321579</v>
+        <v>0.1892630476512926</v>
       </c>
       <c r="T7">
-        <v>0.1636819149321579</v>
+        <v>0.1892630476512925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -909,46 +909,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H8">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I8">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J8">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N8">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q8">
-        <v>0.004989341792000001</v>
+        <v>0.007930199327666669</v>
       </c>
       <c r="R8">
-        <v>0.04490407612800001</v>
+        <v>0.07137179394900001</v>
       </c>
       <c r="S8">
-        <v>0.007715518400603004</v>
+        <v>0.01807250870995303</v>
       </c>
       <c r="T8">
-        <v>0.007715518400603004</v>
+        <v>0.01807250870995302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H9">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I9">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J9">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N9">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q9">
-        <v>0.053204589736</v>
+        <v>0.03796081587833334</v>
       </c>
       <c r="R9">
-        <v>0.4788413076240001</v>
+        <v>0.341647342905</v>
       </c>
       <c r="S9">
-        <v>0.08227558027049707</v>
+        <v>0.08651071016646952</v>
       </c>
       <c r="T9">
-        <v>0.08227558027049708</v>
+        <v>0.08651071016646948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.018566</v>
+      </c>
+      <c r="I10">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J10">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.339352</v>
+      </c>
+      <c r="N10">
+        <v>10.018056</v>
+      </c>
+      <c r="O10">
+        <v>0.6054960700393903</v>
+      </c>
+      <c r="P10">
+        <v>0.6054960700393903</v>
+      </c>
+      <c r="Q10">
+        <v>0.02066613641066667</v>
+      </c>
+      <c r="R10">
+        <v>0.185995227696</v>
+      </c>
+      <c r="S10">
+        <v>0.04709704193434743</v>
+      </c>
+      <c r="T10">
+        <v>0.04709704193434741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.018566</v>
+      </c>
+      <c r="I11">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J11">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.401354</v>
+      </c>
+      <c r="N11">
+        <v>4.204062</v>
+      </c>
+      <c r="O11">
+        <v>0.2540955070726236</v>
+      </c>
+      <c r="P11">
+        <v>0.2540955070726236</v>
+      </c>
+      <c r="Q11">
+        <v>0.008672512788000001</v>
+      </c>
+      <c r="R11">
+        <v>0.07805261509200001</v>
+      </c>
+      <c r="S11">
+        <v>0.0197642021873901</v>
+      </c>
+      <c r="T11">
+        <v>0.01976420218739009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.018566</v>
+      </c>
+      <c r="I12">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J12">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1338136666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.401441</v>
+      </c>
+      <c r="O12">
+        <v>0.02426328499787613</v>
+      </c>
+      <c r="P12">
+        <v>0.02426328499787612</v>
+      </c>
+      <c r="Q12">
+        <v>0.0008281281784444446</v>
+      </c>
+      <c r="R12">
+        <v>0.007453153606000001</v>
+      </c>
+      <c r="S12">
+        <v>0.001887260723154908</v>
+      </c>
+      <c r="T12">
+        <v>0.001887260723154907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.018566</v>
+      </c>
+      <c r="I13">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J13">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6405483333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.921645</v>
+      </c>
+      <c r="O13">
+        <v>0.11614513789011</v>
+      </c>
+      <c r="P13">
+        <v>0.11614513789011</v>
+      </c>
+      <c r="Q13">
+        <v>0.003964140118888889</v>
+      </c>
+      <c r="R13">
+        <v>0.03567726107</v>
+      </c>
+      <c r="S13">
+        <v>0.009034067602330137</v>
+      </c>
+      <c r="T13">
+        <v>0.009034067602330135</v>
       </c>
     </row>
   </sheetData>
